--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y390"/>
+  <dimension ref="A1:Y391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
       </c>
       <c r="R389" s="2" t="inlineStr"/>
     </row>
-    <row r="390">
+    <row r="390" ht="15" customHeight="1">
       <c r="A390" t="inlineStr">
         <is>
           <t>A 35825-2023</t>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23262,6 +23262,63 @@
         <v>0</v>
       </c>
       <c r="R390" s="2" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>A 42432-2023</t>
+        </is>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C391" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y391"/>
+  <dimension ref="A1:Y393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 37268-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 37268-2021.xlsx", "A 37268-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 37268-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 37268-2021.png", "A 37268-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 37268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 37268-2021.docx", "A 37268-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 37268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 37268-2021.docx", "A 37268-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 37268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 37268-2021.docx", "A 37268-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 37268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 37268-2021.docx", "A 37268-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 59155-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 59155-2022.xlsx", "A 59155-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 59155-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 59155-2022.png", "A 59155-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 59155-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 59155-2022.docx", "A 59155-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 59155-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 59155-2022.docx", "A 59155-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 59155-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 59155-2022.docx", "A 59155-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 59155-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 59155-2022.docx", "A 59155-2022")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 13380-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 13380-2020.xlsx", "A 13380-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 13380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 13380-2020.png", "A 13380-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 13380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 13380-2020.docx", "A 13380-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 13380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 13380-2020.docx", "A 13380-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 13380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 13380-2020.docx", "A 13380-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 13380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 13380-2020.docx", "A 13380-2020")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 62060-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 62060-2022.xlsx", "A 62060-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 62060-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 62060-2022.png", "A 62060-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 62060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 62060-2022.docx", "A 62060-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 62060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 62060-2022.docx", "A 62060-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 62060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 62060-2022.docx", "A 62060-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 62060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 62060-2022.docx", "A 62060-2022")</f>
         <v/>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,27 +977,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 3853-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 3853-2021.xlsx", "A 3853-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 3853-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 3853-2021.png", "A 3853-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 3853-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 3853-2021.docx", "A 3853-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 3853-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 3853-2021.docx", "A 3853-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 3853-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 3853-2021.docx", "A 3853-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 3853-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 3853-2021.docx", "A 3853-2021")</f>
         <v/>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1068,27 +1068,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 27284-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 27284-2023.xlsx", "A 27284-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 27284-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 27284-2023.png", "A 27284-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 27284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 27284-2023.docx", "A 27284-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 27284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 27284-2023.docx", "A 27284-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 27284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 27284-2023.docx", "A 27284-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 27284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 27284-2023.docx", "A 27284-2023")</f>
         <v/>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1153,27 +1153,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 35695-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 35695-2018.xlsx", "A 35695-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 35695-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 35695-2018.png", "A 35695-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 35695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 35695-2018.docx", "A 35695-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 35695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 35695-2018.docx", "A 35695-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 35695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 35695-2018.docx", "A 35695-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 35695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 35695-2018.docx", "A 35695-2018")</f>
         <v/>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,27 +1238,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 49919-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 49919-2018.xlsx", "A 49919-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 49919-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 49919-2018.png", "A 49919-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 49919-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 49919-2018.docx", "A 49919-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 49919-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 49919-2018.docx", "A 49919-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 49919-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 49919-2018.docx", "A 49919-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 49919-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 49919-2018.docx", "A 49919-2018")</f>
         <v/>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,27 +1323,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 64077-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 64077-2018.xlsx", "A 64077-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 64077-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 64077-2018.png", "A 64077-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 64077-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 64077-2018.docx", "A 64077-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 64077-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 64077-2018.docx", "A 64077-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 64077-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 64077-2018.docx", "A 64077-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 64077-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 64077-2018.docx", "A 64077-2018")</f>
         <v/>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,27 +1408,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 12467-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 12467-2019.xlsx", "A 12467-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 12467-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 12467-2019.png", "A 12467-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 12467-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 12467-2019.docx", "A 12467-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 12467-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 12467-2019.docx", "A 12467-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 12467-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 12467-2019.docx", "A 12467-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 12467-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 12467-2019.docx", "A 12467-2019")</f>
         <v/>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,27 +1493,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 56351-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 56351-2019.xlsx", "A 56351-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 56351-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 56351-2019.png", "A 56351-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 56351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 56351-2019.docx", "A 56351-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 56351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 56351-2019.docx", "A 56351-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 56351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 56351-2019.docx", "A 56351-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 56351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 56351-2019.docx", "A 56351-2019")</f>
         <v/>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,27 +1578,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 40135-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 40135-2022.xlsx", "A 40135-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 40135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 40135-2022.png", "A 40135-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 40135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 40135-2022.docx", "A 40135-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 40135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 40135-2022.docx", "A 40135-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 40135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 40135-2022.docx", "A 40135-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 40135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 40135-2022.docx", "A 40135-2022")</f>
         <v/>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1663,27 +1663,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 4251-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 4251-2023.xlsx", "A 4251-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 4251-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 4251-2023.png", "A 4251-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 4251-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 4251-2023.docx", "A 4251-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 4251-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 4251-2023.docx", "A 4251-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 4251-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 4251-2023.docx", "A 4251-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 4251-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 4251-2023.docx", "A 4251-2023")</f>
         <v/>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,27 +1748,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 4892-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 4892-2023.xlsx", "A 4892-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 4892-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 4892-2023.png", "A 4892-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 4892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 4892-2023.docx", "A 4892-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 4892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 4892-2023.docx", "A 4892-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 4892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 4892-2023.docx", "A 4892-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 4892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 4892-2023.docx", "A 4892-2023")</f>
         <v/>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,27 +1833,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 24528-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 24528-2023.xlsx", "A 24528-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 24528-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 24528-2023.png", "A 24528-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 24528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 24528-2023.docx", "A 24528-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 24528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 24528-2023.docx", "A 24528-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 24528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 24528-2023.docx", "A 24528-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 24528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 24528-2023.docx", "A 24528-2023")</f>
         <v/>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1918,27 +1918,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 34729-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/artfynd/A 34729-2023.xlsx", "A 34729-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 34729-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/kartor/A 34729-2023.png", "A 34729-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 34729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomål/A 34729-2023.docx", "A 34729-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 34729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/klagomålsmail/A 34729-2023.docx", "A 34729-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 34729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsyn/A 34729-2023.docx", "A 34729-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 34729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTRA_GOINGE/tillsynsmail/A 34729-2023.docx", "A 34729-2023")</f>
         <v/>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="R390" s="2" t="inlineStr"/>
     </row>
-    <row r="391">
+    <row r="391" ht="15" customHeight="1">
       <c r="A391" t="inlineStr">
         <is>
           <t>A 42432-2023</t>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23319,6 +23319,120 @@
         <v>0</v>
       </c>
       <c r="R391" s="2" t="inlineStr"/>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>A 43478-2023</t>
+        </is>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" s="2" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>A 43479-2023</t>
+        </is>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C393" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y393"/>
+  <dimension ref="A1:Y394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="R392" s="2" t="inlineStr"/>
     </row>
-    <row r="393">
+    <row r="393" ht="15" customHeight="1">
       <c r="A393" t="inlineStr">
         <is>
           <t>A 43479-2023</t>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23433,6 +23433,63 @@
         <v>0</v>
       </c>
       <c r="R393" s="2" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>A 44732-2023</t>
+        </is>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C394" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y394"/>
+  <dimension ref="A1:Y396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
       </c>
       <c r="R393" s="2" t="inlineStr"/>
     </row>
-    <row r="394">
+    <row r="394" ht="15" customHeight="1">
       <c r="A394" t="inlineStr">
         <is>
           <t>A 44732-2023</t>
@@ -23444,7 +23444,7 @@
         <v>45190</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23490,6 +23490,120 @@
         <v>0</v>
       </c>
       <c r="R394" s="2" t="inlineStr"/>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>A 46566-2023</t>
+        </is>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C395" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" s="2" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>A 46677-2023</t>
+        </is>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C396" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45190</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45198</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45198</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45190</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45198</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45198</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45190</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45198</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45198</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43902</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45096</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>43326</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>43376</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43523</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44820</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44953</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45139</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43332</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43342</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43360</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43362</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43389</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43428</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43428</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43449</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43449</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43507</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43507</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43545</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43606</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43658</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43658</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43658</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43686</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43686</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43696</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43710</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43726</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43727</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43740</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43742</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43742</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43742</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43742</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43742</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43742</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43773</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43774</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43774</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43829</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43894</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43913</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43913</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43922</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43955</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43966</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43966</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43968</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43985</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>43987</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43990</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43996</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44003</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44005</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44018</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44019</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44032</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44032</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44046</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44046</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44047</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44049</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44049</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44063</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44071</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44078</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44081</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44084</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44090</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44092</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44092</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44092</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44092</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44092</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44092</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44092</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44092</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44099</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44123</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44133</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44138</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44152</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44169</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44172</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44174</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44187</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44193</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44193</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44207</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44210</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44214</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44215</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44228</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44232</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44236</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44263</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44287</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44320</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44326</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44326</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44327</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44327</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44396</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44403</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44414</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44428</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44454</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44455</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44460</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>44462</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44467</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44531</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44531</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44531</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44539</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44539</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44575</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44588</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44602</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44606</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44614</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44627</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44635</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44700</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44723</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44727</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44742</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44742</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44747</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44796</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44803</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44820</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44839</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44840</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44841</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44845</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44853</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44880</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44896</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44896</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44896</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44897</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44897</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44910</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44918</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44918</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44929</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44929</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44929</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44930</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44937</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44953</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44958</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44958</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44964</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44977</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44977</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44992</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45011</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45041</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45043</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45056</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45076</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45076</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45076</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45076</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45082</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45082</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45091</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45091</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45091</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45091</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45097</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45097</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45097</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45105</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45105</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45105</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45105</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45105</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45117</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45139</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45139</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45139</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45146</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45146</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45146</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45147</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45147</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45147</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45147</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45147</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45147</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45184</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45184</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45190</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45198</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45198</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
